--- a/Proyectos/2016/7/P1795 - TimbresEcodex,Maria Soledad_AG/Compras/P1795 - TimbresEcodex,Maria Soledad_AG.xlsx
+++ b/Proyectos/2016/7/P1795 - TimbresEcodex,Maria Soledad_AG/Compras/P1795 - TimbresEcodex,Maria Soledad_AG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Deal</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>El número de serie de Easy Retail se obtiene del demo (que debe estar instalado en la computadora del cliente ),en -menú ayuda-acerca de-</t>
+  </si>
+  <si>
+    <t>Alma Yesenia García Enriquez</t>
+  </si>
+  <si>
+    <t>25/07/21016</t>
+  </si>
+  <si>
+    <t>P1795</t>
   </si>
 </sst>
 </file>
@@ -843,12 +852,57 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -872,56 +926,11 @@
     <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1286,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,159 +1314,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="61">
         <v>44400</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1472,167 +1481,173 @@
       <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
+      <c r="G14" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="50" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="65" t="s">
+      <c r="H15" s="54"/>
+      <c r="I15" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -1738,27 +1753,27 @@
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="42" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43" t="s">
+      <c r="G26" s="57"/>
+      <c r="H26" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="51" t="s">
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="52"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
     </row>
     <row r="27" spans="1:16" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
@@ -1812,14 +1827,20 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="16"/>
@@ -1827,14 +1848,14 @@
       <c r="L28" s="6"/>
       <c r="M28" s="33"/>
       <c r="N28" s="37">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="O28" s="38">
         <v>0</v>
       </c>
       <c r="P28" s="35">
         <f>N28*(1-O28)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -2216,48 +2237,37 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N43" s="53" t="s">
+      <c r="N43" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="53"/>
+      <c r="O43" s="39"/>
       <c r="P43" s="36">
         <f>+SUM(P28:P42)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N44" s="53" t="s">
+      <c r="N44" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="O44" s="53"/>
+      <c r="O44" s="39"/>
       <c r="P44" s="35">
         <f>+P43*0.16</f>
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N45" s="53" t="s">
+      <c r="N45" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O45" s="53"/>
+      <c r="O45" s="39"/>
       <c r="P45" s="36">
         <f>+P43+P44</f>
-        <v>0</v>
+        <v>2320</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:M18"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:M15"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="A1:M6"/>
@@ -2274,6 +2284,17 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A17:M18"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:M15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G11" r:id="rId1"/>
